--- a/Documents/Table_List/09_Level_Table.xlsx
+++ b/Documents/Table_List/09_Level_Table.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC-02\Desktop\github\DefensiveDungeon\Documents\Table_List\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8323D7FB-351D-4D7A-BABC-67C86DDC8B61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B485847-31A0-46FA-A096-43E8AD19BD7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5010" yWindow="1815" windowWidth="21600" windowHeight="11385" xr2:uid="{E4ACB36E-A8B8-4FA8-B4D1-3C4B6E03D109}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E4ACB36E-A8B8-4FA8-B4D1-3C4B6E03D109}"/>
   </bookViews>
   <sheets>
     <sheet name="Level_Table" sheetId="2" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Level_Table!$B$5:$G$5</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -596,8 +599,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99FB0ED0-4CF3-46A0-82F4-978D4ED5EB3A}">
   <dimension ref="B2:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R21" sqref="R21"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="145" zoomScaleNormal="100" zoomScaleSheetLayoutView="145" workbookViewId="0">
+      <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
+      <selection pane="bottomRight" activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -883,6 +889,7 @@
       <c r="B16" s="3"/>
     </row>
   </sheetData>
+  <autoFilter ref="B5:G5" xr:uid="{99FB0ED0-4CF3-46A0-82F4-978D4ED5EB3A}"/>
   <mergeCells count="6">
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="B2:B3"/>

--- a/Documents/Table_List/09_Level_Table.xlsx
+++ b/Documents/Table_List/09_Level_Table.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC-02\Desktop\github\DefensiveDungeon\Documents\Table_List\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC-01\Documents\GitHub\DefensiveDungeon\Documents\Table_List\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B485847-31A0-46FA-A096-43E8AD19BD7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE533824-7993-41F6-A9DF-735B1E473189}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E4ACB36E-A8B8-4FA8-B4D1-3C4B6E03D109}"/>
   </bookViews>
@@ -603,7 +603,7 @@
       <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="G12" sqref="G12"/>
+      <selection pane="bottomRight" activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -693,7 +693,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="4">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E6" s="4">
         <v>2</v>
@@ -713,7 +713,7 @@
         <v>2</v>
       </c>
       <c r="D7" s="4">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E7" s="4">
         <v>2</v>
@@ -733,7 +733,7 @@
         <v>3</v>
       </c>
       <c r="D8" s="4">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E8" s="4">
         <v>2</v>
@@ -753,7 +753,7 @@
         <v>4</v>
       </c>
       <c r="D9" s="4">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E9" s="4">
         <v>2</v>
@@ -793,7 +793,7 @@
         <v>6</v>
       </c>
       <c r="D11" s="4">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E11" s="4">
         <v>2</v>
@@ -813,7 +813,7 @@
         <v>7</v>
       </c>
       <c r="D12" s="4">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E12" s="4">
         <v>2</v>
@@ -833,7 +833,7 @@
         <v>8</v>
       </c>
       <c r="D13" s="4">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="E13" s="4">
         <v>2</v>
@@ -853,7 +853,7 @@
         <v>9</v>
       </c>
       <c r="D14" s="4">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E14" s="4">
         <v>2</v>
@@ -873,7 +873,7 @@
         <v>10</v>
       </c>
       <c r="D15" s="4">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="E15" s="4">
         <v>2</v>

--- a/Documents/Table_List/09_Level_Table.xlsx
+++ b/Documents/Table_List/09_Level_Table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC-01\Documents\GitHub\DefensiveDungeon\Documents\Table_List\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE533824-7993-41F6-A9DF-735B1E473189}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B262F51F-294D-485E-A80C-BB095194A89B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E4ACB36E-A8B8-4FA8-B4D1-3C4B6E03D109}"/>
   </bookViews>
@@ -149,6 +149,8 @@
       <sz val="10"/>
       <color theme="0"/>
       <name val="Arimo"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
     <font>
       <sz val="11"/>
@@ -603,7 +605,7 @@
       <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="I15" sqref="I15"/>
+      <selection pane="bottomRight" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -693,7 +695,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E6" s="4">
         <v>2</v>
@@ -713,7 +715,7 @@
         <v>2</v>
       </c>
       <c r="D7" s="4">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E7" s="4">
         <v>2</v>
@@ -733,7 +735,7 @@
         <v>3</v>
       </c>
       <c r="D8" s="4">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E8" s="4">
         <v>2</v>
@@ -753,7 +755,7 @@
         <v>4</v>
       </c>
       <c r="D9" s="4">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E9" s="4">
         <v>2</v>
@@ -773,7 +775,7 @@
         <v>5</v>
       </c>
       <c r="D10" s="4">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E10" s="4">
         <v>2</v>
@@ -793,7 +795,7 @@
         <v>6</v>
       </c>
       <c r="D11" s="4">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="E11" s="4">
         <v>2</v>
@@ -813,7 +815,7 @@
         <v>7</v>
       </c>
       <c r="D12" s="4">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="E12" s="4">
         <v>2</v>
@@ -833,7 +835,7 @@
         <v>8</v>
       </c>
       <c r="D13" s="4">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="E13" s="4">
         <v>2</v>
@@ -853,7 +855,7 @@
         <v>9</v>
       </c>
       <c r="D14" s="4">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="E14" s="4">
         <v>2</v>
@@ -873,7 +875,7 @@
         <v>10</v>
       </c>
       <c r="D15" s="4">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="E15" s="4">
         <v>2</v>
